--- a/Tableau analysis.xlsx
+++ b/Tableau analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.wellpoint.com/personal/ah26173_ad_wellpoint_com/Documents/Documents/Prj/Reporting/Metrics/AHT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{8EA668DB-7551-45B2-8C0E-5464EB4391C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12B02342-2A9E-4D33-9E2B-377C71866E8B}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{8EA668DB-7551-45B2-8C0E-5464EB4391C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4A7F49D-E83A-4DAD-B56C-21798DF91D3E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5D6FEEBD-D580-4AB4-8855-DF49C1C7AC13}"/>
   </bookViews>
@@ -41,22 +41,25 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Learning Support</t>
-  </si>
-  <si>
     <t>DTRT</t>
   </si>
   <si>
     <t>LS-hh:mm:ss</t>
   </si>
   <si>
-    <t>01:43:10</t>
+    <t>Total Resolved</t>
+  </si>
+  <si>
+    <t>Learning AIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,11 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,15 +411,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442616D4-AF3A-4B70-AF6E-E2BD11479461}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -423,13 +425,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -442,11 +447,11 @@
       <c r="C2">
         <v>81.489999999999995</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
+        <v>302</v>
+      </c>
+      <c r="E2" s="2">
         <v>7.1643518518518523E-2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -459,7 +464,10 @@
       <c r="C3">
         <v>112.17</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
+        <v>590</v>
+      </c>
+      <c r="E3" s="2">
         <v>6.6444444444444445E-2</v>
       </c>
     </row>
@@ -473,7 +481,10 @@
       <c r="C4">
         <v>107.49</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
+        <v>567</v>
+      </c>
+      <c r="E4" s="2">
         <v>7.0868055555555559E-2</v>
       </c>
     </row>
@@ -487,7 +498,10 @@
       <c r="C5">
         <v>118.57</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
+        <v>190</v>
+      </c>
+      <c r="E5" s="2">
         <v>5.5916666666666663E-2</v>
       </c>
     </row>
@@ -501,7 +515,10 @@
       <c r="C6">
         <v>108.9</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
+        <v>456</v>
+      </c>
+      <c r="E6" s="2">
         <v>6.1118055555555557E-2</v>
       </c>
     </row>
@@ -515,7 +532,10 @@
       <c r="C7">
         <v>129.69</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
+        <v>467</v>
+      </c>
+      <c r="E7" s="2">
         <v>5.9805555555555556E-2</v>
       </c>
     </row>
@@ -529,7 +549,10 @@
       <c r="C8">
         <v>118.35</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
+        <v>1280</v>
+      </c>
+      <c r="E8" s="2">
         <v>7.023611111111111E-2</v>
       </c>
     </row>
@@ -543,7 +566,10 @@
       <c r="C9">
         <v>117.77</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
+        <v>355</v>
+      </c>
+      <c r="E9" s="2">
         <v>7.9548611111111112E-2</v>
       </c>
     </row>
@@ -557,7 +583,10 @@
       <c r="C10">
         <v>115.09</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
+        <v>678</v>
+      </c>
+      <c r="E10" s="2">
         <v>7.1444444444444435E-2</v>
       </c>
     </row>
@@ -571,7 +600,10 @@
       <c r="C11">
         <v>115.36</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
+        <v>456</v>
+      </c>
+      <c r="E11" s="2">
         <v>7.4979166666666666E-2</v>
       </c>
     </row>
@@ -585,7 +617,10 @@
       <c r="C12">
         <v>121.68</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
+        <v>894</v>
+      </c>
+      <c r="E12" s="2">
         <v>7.4715277777777783E-2</v>
       </c>
     </row>
@@ -599,7 +634,10 @@
       <c r="C13">
         <v>13.48</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
+        <v>358</v>
+      </c>
+      <c r="E13" s="2">
         <v>1.551388888888889E-2</v>
       </c>
     </row>
